--- a/reporte de cuentas por pagar - .xlsx
+++ b/reporte de cuentas por pagar - .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\pago-proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E73342-2BBE-4BA4-8D44-5140A5A40416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44769671-51E1-4916-AAFE-DF4775711CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="279">
   <si>
     <t>Nombres</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>CE 20-10 113</t>
-  </si>
-  <si>
-    <t>BIBO SOLUTIONS SAS</t>
   </si>
   <si>
     <t>NIT 900858550 - 7</t>
@@ -1421,7 +1418,7 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P1" s="21"/>
     </row>
@@ -2011,17 +2008,17 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="6" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="8">
         <v>44111</v>
@@ -2048,14 +2045,14 @@
         <v>0</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="19">
         <f>H11+H12+H13</f>
         <v>2359386</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P16" s="26"/>
     </row>
@@ -2070,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8">
         <v>44104</v>
@@ -2097,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="19" spans="1:16" s="6" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>18</v>
@@ -2168,21 +2165,21 @@
         <v>525870</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:16" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="E20" s="16">
         <v>44044</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="22" spans="1:16" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -2280,21 +2277,21 @@
         <v>87451</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="16">
         <v>44105</v>
@@ -2321,14 +2318,14 @@
         <v>0</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N23" s="23">
         <f>J20</f>
         <v>87451</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P23" s="21"/>
     </row>
@@ -2359,13 +2356,13 @@
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>18</v>
@@ -2394,24 +2391,24 @@
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="6" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E26" s="8">
         <v>44105</v>
@@ -2443,7 +2440,7 @@
         <v>84300</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P26" s="26"/>
     </row>
@@ -2458,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="8">
         <v>44105</v>
@@ -2487,7 +2484,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P27" s="26"/>
     </row>
@@ -2502,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="8">
         <v>44105</v>
@@ -2531,7 +2528,7 @@
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P28" s="26"/>
     </row>
@@ -2563,13 +2560,13 @@
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" s="6" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>18</v>
@@ -2599,22 +2596,22 @@
       <c r="M30" s="26"/>
       <c r="N30" s="19"/>
       <c r="O30" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="E31" s="16">
         <v>44117</v>
@@ -2645,7 +2642,7 @@
         <v>193970</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P31" s="21"/>
     </row>
@@ -2660,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="16">
         <v>44119</v>
@@ -2688,7 +2685,7 @@
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P32" s="21"/>
     </row>
@@ -2719,13 +2716,13 @@
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P33" s="21"/>
     </row>
     <row r="34" spans="1:16" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>18</v>
@@ -2754,22 +2751,22 @@
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="E35" s="8">
         <v>44119</v>
@@ -2798,7 +2795,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P35" s="26"/>
     </row>
@@ -2830,13 +2827,13 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P36" s="26"/>
     </row>
     <row r="37" spans="1:16" s="6" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>18</v>
@@ -2866,24 +2863,24 @@
       <c r="M37" s="26"/>
       <c r="N37" s="19"/>
       <c r="O37" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P37" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:16" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="E38" s="16">
         <v>44106</v>
@@ -2910,14 +2907,14 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N38" s="23">
         <f>H35</f>
         <v>97991</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P38" s="21"/>
     </row>
@@ -2952,7 +2949,7 @@
     </row>
     <row r="40" spans="1:16" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>18</v>
@@ -2980,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
@@ -2988,16 +2985,16 @@
     </row>
     <row r="41" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="E41" s="16">
         <v>44089</v>
@@ -3058,7 +3055,7 @@
     </row>
     <row r="43" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>18</v>
@@ -3102,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" s="16">
         <v>44106</v>
@@ -3143,7 +3140,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="16">
         <v>44118</v>
@@ -3184,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="16">
         <v>44098</v>
@@ -3225,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="16">
         <v>44098</v>
@@ -3286,7 +3283,7 @@
     </row>
     <row r="49" spans="1:16" ht="12" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>18</v>
@@ -3318,7 +3315,7 @@
         <v>1819546</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -3332,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" s="16">
         <v>44083</v>
@@ -3373,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="16">
         <v>44055</v>
@@ -3414,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="16">
         <v>44113</v>
@@ -3455,7 +3452,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="16">
         <v>44081</v>
@@ -3496,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="16">
         <v>44076</v>
@@ -3537,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="16">
         <v>44114</v>
@@ -3578,7 +3575,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="16">
         <v>44111</v>
@@ -3619,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="16">
         <v>44077</v>
@@ -3660,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="16">
         <v>44088</v>
@@ -3701,7 +3698,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="16">
         <v>44103</v>
@@ -3742,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="16">
         <v>44102</v>
@@ -3783,7 +3780,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="16">
         <v>44074</v>
@@ -3824,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="16">
         <v>44090</v>
@@ -3865,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="16">
         <v>44098</v>
@@ -3906,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="16">
         <v>44099</v>
@@ -3947,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E65" s="16">
         <v>44098</v>
@@ -3988,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" s="16">
         <v>44071</v>
@@ -4029,7 +4026,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67" s="16">
         <v>44104</v>
@@ -4091,7 +4088,7 @@
     </row>
     <row r="69" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>18</v>
@@ -4123,7 +4120,7 @@
         <v>9952604</v>
       </c>
       <c r="P69" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -4137,7 +4134,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E70" s="16">
         <v>44118</v>
@@ -4178,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="16">
         <v>44109</v>
@@ -4219,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" s="16">
         <v>44088</v>
@@ -4260,7 +4257,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" s="16">
         <v>44091</v>
@@ -4301,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="16">
         <v>44075</v>
@@ -4328,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
@@ -4345,7 +4342,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E75" s="16">
         <v>44097</v>
@@ -4386,7 +4383,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E76" s="16">
         <v>44099</v>
@@ -4427,7 +4424,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" s="16">
         <v>44104</v>
@@ -4468,7 +4465,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="16">
         <v>44103</v>
@@ -4509,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="16">
         <v>44088</v>
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
@@ -4573,7 +4570,7 @@
     </row>
     <row r="81" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>18</v>
@@ -4605,7 +4602,7 @@
         <v>4407849</v>
       </c>
       <c r="P81" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -4619,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="16">
         <v>44106</v>
@@ -4660,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" s="16">
         <v>44106</v>
@@ -4701,7 +4698,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E84" s="16">
         <v>44106</v>
@@ -4762,7 +4759,7 @@
     </row>
     <row r="86" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>18</v>
@@ -4795,16 +4792,16 @@
     </row>
     <row r="87" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="C87" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="E87" s="16">
         <v>44105</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="89" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>18</v>
@@ -4898,16 +4895,16 @@
     </row>
     <row r="90" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="C90" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="E90" s="16">
         <v>44112</v>
@@ -4948,7 +4945,7 @@
         <v>16</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E91" s="16">
         <v>44106</v>
@@ -4989,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92" s="16">
         <v>44082</v>
@@ -5030,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93" s="16">
         <v>44106</v>
@@ -5068,7 +5065,7 @@
         <v>16</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="16">
         <v>44082</v>
@@ -5106,7 +5103,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E95" s="16">
         <v>44110</v>
@@ -5144,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E96" s="16">
         <v>44082</v>
@@ -5182,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E97" s="16">
         <v>44083</v>
@@ -5220,7 +5217,7 @@
         <v>16</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E98" s="16">
         <v>44076</v>
@@ -5258,7 +5255,7 @@
         <v>16</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E99" s="16">
         <v>44091</v>
@@ -5296,7 +5293,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E100" s="16">
         <v>44089</v>
@@ -5334,7 +5331,7 @@
         <v>16</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E101" s="16">
         <v>44089</v>
@@ -5372,7 +5369,7 @@
         <v>16</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E102" s="16">
         <v>44091</v>
@@ -5410,7 +5407,7 @@
         <v>16</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E103" s="16">
         <v>44096</v>
@@ -5448,7 +5445,7 @@
         <v>16</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E104" s="16">
         <v>44096</v>
@@ -5486,7 +5483,7 @@
         <v>16</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E105" s="16">
         <v>44097</v>
@@ -5524,7 +5521,7 @@
         <v>16</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" s="16">
         <v>44097</v>
@@ -5562,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107" s="16">
         <v>44097</v>
@@ -5600,7 +5597,7 @@
         <v>16</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108" s="16">
         <v>44098</v>
@@ -5638,7 +5635,7 @@
         <v>16</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E109" s="16">
         <v>44098</v>
@@ -5679,7 +5676,7 @@
         <v>16</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" s="16">
         <v>44099</v>
@@ -5720,7 +5717,7 @@
         <v>16</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E111" s="16">
         <v>44099</v>
@@ -5781,7 +5778,7 @@
     </row>
     <row r="113" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>18</v>
@@ -5813,7 +5810,7 @@
         <v>52092009</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -5847,7 +5844,7 @@
     </row>
     <row r="115" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>18</v>
@@ -5879,7 +5876,7 @@
         <v>1074121</v>
       </c>
       <c r="P115" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -5913,7 +5910,7 @@
     </row>
     <row r="117" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>18</v>
@@ -5945,7 +5942,7 @@
         <v>669600</v>
       </c>
       <c r="P117" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -5975,13 +5972,13 @@
       </c>
       <c r="N118" s="21"/>
       <c r="O118" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P118" s="21"/>
     </row>
     <row r="119" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>18</v>
@@ -6010,22 +6007,22 @@
       </c>
       <c r="N119" s="21"/>
       <c r="O119" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P119" s="21"/>
     </row>
     <row r="120" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="C120" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="E120" s="16">
         <v>44098</v>
@@ -6053,7 +6050,7 @@
       </c>
       <c r="N120" s="21"/>
       <c r="O120" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P120" s="21"/>
     </row>
@@ -6068,7 +6065,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E121" s="16">
         <v>44104</v>
@@ -6096,7 +6093,7 @@
       </c>
       <c r="N121" s="21"/>
       <c r="O121" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P121" s="21"/>
     </row>
@@ -6111,7 +6108,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E122" s="16">
         <v>44103</v>
@@ -6138,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -6167,12 +6164,12 @@
         <v>0</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="12" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>18</v>
@@ -6200,21 +6197,21 @@
         <v>0</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="18" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="E125" s="8">
         <v>44104</v>
@@ -6241,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O125" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -6273,12 +6270,12 @@
         <v>0</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A127" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>18</v>
@@ -6306,21 +6303,21 @@
         <v>0</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="C128" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="E128" s="16">
         <v>44097</v>
@@ -6347,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6361,7 +6358,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E129" s="16">
         <v>44103</v>
@@ -6388,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -6417,12 +6414,12 @@
         <v>0</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" s="22" t="s">
         <v>18</v>
@@ -6450,21 +6447,21 @@
         <v>0</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="C132" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="E132" s="16">
         <v>44111</v>
@@ -6491,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6505,7 +6502,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E133" s="16">
         <v>44110</v>
@@ -6532,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6546,7 +6543,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E134" s="16">
         <v>44114</v>
@@ -6573,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6587,7 +6584,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E135" s="16">
         <v>44090</v>
@@ -6614,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6628,7 +6625,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E136" s="16">
         <v>44096</v>
@@ -6655,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6669,7 +6666,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E137" s="16">
         <v>44093</v>
@@ -6696,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -6710,7 +6707,7 @@
         <v>16</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E138" s="16">
         <v>44092</v>
@@ -6738,7 +6735,7 @@
       </c>
       <c r="N138" s="21"/>
       <c r="O138" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P138" s="21"/>
     </row>
@@ -6753,7 +6750,7 @@
         <v>16</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E139" s="16">
         <v>44097</v>
@@ -6781,7 +6778,7 @@
       </c>
       <c r="N139" s="21"/>
       <c r="O139" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P139" s="21"/>
     </row>
@@ -6796,7 +6793,7 @@
         <v>16</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E140" s="16">
         <v>44098</v>
@@ -6824,7 +6821,7 @@
       </c>
       <c r="N140" s="21"/>
       <c r="O140" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P140" s="21"/>
     </row>
@@ -6839,7 +6836,7 @@
         <v>16</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E141" s="16">
         <v>44103</v>
@@ -6867,7 +6864,7 @@
       </c>
       <c r="N141" s="21"/>
       <c r="O141" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P141" s="21"/>
     </row>
@@ -6882,7 +6879,7 @@
         <v>16</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E142" s="16">
         <v>44102</v>
@@ -6910,7 +6907,7 @@
       </c>
       <c r="N142" s="21"/>
       <c r="O142" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P142" s="21"/>
     </row>
@@ -6925,7 +6922,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E143" s="16">
         <v>44089</v>
@@ -6953,7 +6950,7 @@
       </c>
       <c r="N143" s="21"/>
       <c r="O143" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P143" s="21"/>
     </row>
@@ -6968,7 +6965,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E144" s="16">
         <v>44089</v>
@@ -6996,7 +6993,7 @@
       </c>
       <c r="N144" s="21"/>
       <c r="O144" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P144" s="21"/>
     </row>
@@ -7011,7 +7008,7 @@
         <v>16</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E145" s="16">
         <v>44098</v>
@@ -7039,7 +7036,7 @@
       </c>
       <c r="N145" s="21"/>
       <c r="O145" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P145" s="21"/>
     </row>
@@ -7054,7 +7051,7 @@
         <v>16</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E146" s="16">
         <v>44104</v>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="N146" s="21"/>
       <c r="O146" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P146" s="21"/>
     </row>
@@ -7097,7 +7094,7 @@
         <v>16</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E147" s="16">
         <v>44103</v>
@@ -7125,7 +7122,7 @@
       </c>
       <c r="N147" s="21"/>
       <c r="O147" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P147" s="21"/>
     </row>
@@ -7156,13 +7153,13 @@
       </c>
       <c r="N148" s="21"/>
       <c r="O148" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P148" s="21"/>
     </row>
     <row r="149" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>18</v>
@@ -7191,10 +7188,10 @@
       </c>
       <c r="N149" s="23"/>
       <c r="O149" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P149" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -7208,7 +7205,7 @@
         <v>16</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E150" s="16">
         <v>44097</v>
@@ -7236,7 +7233,7 @@
       </c>
       <c r="N150" s="21"/>
       <c r="O150" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P150" s="21"/>
     </row>
@@ -7267,13 +7264,13 @@
       </c>
       <c r="N151" s="21"/>
       <c r="O151" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P151" s="21"/>
     </row>
     <row r="152" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A152" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152" s="22" t="s">
         <v>18</v>
@@ -7302,10 +7299,10 @@
       </c>
       <c r="N152" s="23"/>
       <c r="O152" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P152" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -7335,13 +7332,13 @@
       </c>
       <c r="N153" s="21"/>
       <c r="O153" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P153" s="21"/>
     </row>
     <row r="154" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A154" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154" s="22" t="s">
         <v>18</v>
@@ -7370,22 +7367,22 @@
       </c>
       <c r="N154" s="21"/>
       <c r="O154" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P154" s="21"/>
     </row>
     <row r="155" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A155" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B155" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="C155" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>199</v>
       </c>
       <c r="E155" s="16">
         <v>44102</v>
@@ -7413,7 +7410,7 @@
       </c>
       <c r="N155" s="21"/>
       <c r="O155" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P155" s="21"/>
     </row>
@@ -7444,13 +7441,13 @@
       </c>
       <c r="N156" s="21"/>
       <c r="O156" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P156" s="21"/>
     </row>
     <row r="157" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B157" s="22" t="s">
         <v>18</v>
@@ -7479,22 +7476,22 @@
       </c>
       <c r="N157" s="21"/>
       <c r="O157" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P157" s="21"/>
     </row>
     <row r="158" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A158" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="C158" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="E158" s="16">
         <v>44109</v>
@@ -7522,7 +7519,7 @@
       </c>
       <c r="N158" s="21"/>
       <c r="O158" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P158" s="21"/>
     </row>
@@ -7553,13 +7550,13 @@
       </c>
       <c r="N159" s="21"/>
       <c r="O159" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P159" s="21"/>
     </row>
     <row r="160" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A160" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B160" s="22" t="s">
         <v>18</v>
@@ -7588,22 +7585,22 @@
       </c>
       <c r="N160" s="21"/>
       <c r="O160" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P160" s="21"/>
     </row>
     <row r="161" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A161" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="C161" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="E161" s="16">
         <v>44080</v>
@@ -7630,11 +7627,11 @@
         <v>0</v>
       </c>
       <c r="M161" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N161" s="21"/>
       <c r="O161" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P161" s="21"/>
     </row>
@@ -7665,13 +7662,13 @@
       </c>
       <c r="N162" s="21"/>
       <c r="O162" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P162" s="21"/>
     </row>
     <row r="163" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A163" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163" s="22" t="s">
         <v>18</v>
@@ -7700,22 +7697,22 @@
       </c>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P163" s="21"/>
     </row>
     <row r="164" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A164" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="C164" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="E164" s="16">
         <v>44098</v>
@@ -7743,7 +7740,7 @@
       </c>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P164" s="21"/>
     </row>
@@ -7774,13 +7771,13 @@
       </c>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P165" s="21"/>
     </row>
     <row r="166" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A166" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B166" s="22" t="s">
         <v>18</v>
@@ -7809,10 +7806,10 @@
       </c>
       <c r="N166" s="23"/>
       <c r="O166" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -7846,7 +7843,7 @@
     </row>
     <row r="168" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A168" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B168" s="22" t="s">
         <v>18</v>
@@ -7879,16 +7876,16 @@
     </row>
     <row r="169" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A169" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B169" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="C169" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>218</v>
       </c>
       <c r="E169" s="16">
         <v>44109</v>
@@ -7929,7 +7926,7 @@
         <v>16</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E170" s="16">
         <v>44109</v>
@@ -7970,7 +7967,7 @@
         <v>16</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E171" s="16">
         <v>44111</v>
@@ -8011,7 +8008,7 @@
         <v>16</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E172" s="16">
         <v>44118</v>
@@ -8052,7 +8049,7 @@
         <v>16</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E173" s="16">
         <v>44118</v>
@@ -8093,7 +8090,7 @@
         <v>16</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E174" s="16">
         <v>44090</v>
@@ -8134,7 +8131,7 @@
         <v>16</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E175" s="16">
         <v>44098</v>
@@ -8175,7 +8172,7 @@
         <v>16</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E176" s="16">
         <v>44099</v>
@@ -8236,7 +8233,7 @@
     </row>
     <row r="178" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>18</v>
@@ -8268,7 +8265,7 @@
         <v>6013778</v>
       </c>
       <c r="P178" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:16" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -8302,7 +8299,7 @@
     </row>
     <row r="180" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A180" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B180" s="22" t="s">
         <v>18</v>
@@ -8334,7 +8331,7 @@
         <v>4031339</v>
       </c>
       <c r="P180" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:16" hidden="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -8348,7 +8345,7 @@
         <v>16</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E181" s="16">
         <v>44105</v>
@@ -8389,7 +8386,7 @@
         <v>16</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E182" s="16">
         <v>44112</v>
@@ -8430,7 +8427,7 @@
         <v>16</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E183" s="16">
         <v>44092</v>
@@ -8471,7 +8468,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E184" s="16">
         <v>44092</v>
@@ -8512,7 +8509,7 @@
         <v>16</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E185" s="16">
         <v>44096</v>
@@ -8553,7 +8550,7 @@
         <v>16</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E186" s="16">
         <v>44099</v>
@@ -8614,7 +8611,7 @@
     </row>
     <row r="188" spans="1:16" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A188" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B188" s="22" t="s">
         <v>18</v>
@@ -8646,12 +8643,12 @@
         <v>11817175</v>
       </c>
       <c r="P188" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A189" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B189" s="22" t="s">
         <v>18</v>
@@ -8661,27 +8658,27 @@
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
       <c r="G189" s="23">
-        <f>+G5+G9+G14+G18+G21+G24+G29+G33+G36+G39+G42+G48+G68+G80+G85+G88+G112+G114+G116+G118+G123+G126+G130+G148+G151+G153+G156+G159+G162+G165+G167+G177+G179+G187</f>
+        <f t="shared" ref="G189:L189" si="0">+G5+G9+G14+G18+G21+G24+G29+G33+G36+G39+G42+G48+G68+G80+G85+G88+G112+G114+G116+G118+G123+G126+G130+G148+G151+G153+G156+G159+G162+G165+G167+G177+G179+G187</f>
         <v>611225087</v>
       </c>
       <c r="H189" s="23">
-        <f>+H5+H9+H14+H18+H21+H24+H29+H33+H36+H39+H42+H48+H68+H80+H85+H88+H112+H114+H116+H118+H123+H126+H130+H148+H151+H153+H156+H159+H162+H165+H167+H177+H179+H187</f>
+        <f t="shared" si="0"/>
         <v>451950511</v>
       </c>
       <c r="I189" s="23">
-        <f>+I5+I9+I14+I18+I21+I24+I29+I33+I36+I39+I42+I48+I68+I80+I85+I88+I112+I114+I116+I118+I123+I126+I130+I148+I151+I153+I156+I159+I162+I165+I167+I177+I179+I187</f>
+        <f t="shared" si="0"/>
         <v>154677098</v>
       </c>
       <c r="J189" s="23">
-        <f>+J5+J9+J14+J18+J21+J24+J29+J33+J36+J39+J42+J48+J68+J80+J85+J88+J112+J114+J116+J118+J123+J126+J130+J148+J151+J153+J156+J159+J162+J165+J167+J177+J179+J187</f>
+        <f t="shared" si="0"/>
         <v>87451</v>
       </c>
       <c r="K189" s="23">
-        <f>+K5+K9+K14+K18+K21+K24+K29+K33+K36+K39+K42+K48+K68+K80+K85+K88+K112+K114+K116+K118+K123+K126+K130+K148+K151+K153+K156+K159+K162+K165+K167+K177+K179+K187</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L189" s="23">
-        <f>+L5+L9+L14+L18+L21+L24+L29+L33+L36+L39+L42+L48+L68+L80+L85+L88+L112+L114+L116+L118+L123+L126+L130+L148+L151+L153+L156+L159+L162+L165+L167+L177+L179+L187</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N189" s="23">
@@ -8721,7 +8718,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
@@ -8747,7 +8744,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -8771,7 +8768,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
@@ -8793,7 +8790,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
@@ -8812,7 +8809,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
@@ -8830,7 +8827,7 @@
     </row>
     <row r="198" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
@@ -8842,7 +8839,7 @@
         <v>184142618</v>
       </c>
       <c r="H198" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I198" s="23"/>
       <c r="J198" s="23"/>
@@ -8851,7 +8848,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
@@ -8869,7 +8866,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B202" s="22"/>
       <c r="C202" s="23"/>
@@ -9006,13 +9003,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="16">
         <v>44077</v>
@@ -9039,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -9048,7 +9045,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="16">
         <v>44083</v>
@@ -9082,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="16">
         <v>44068</v>
@@ -9116,7 +9113,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="16">
         <v>44049</v>
@@ -9172,7 +9169,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="16"/>
@@ -9265,21 +9262,21 @@
         <v>11</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>257</v>
       </c>
       <c r="E3" s="16">
         <v>44046</v>
@@ -9306,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -9320,7 +9317,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="16">
         <v>44049</v>
@@ -9359,7 +9356,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="16">
         <v>44076</v>
@@ -9395,10 +9392,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="16">
         <v>44084</v>
@@ -9437,7 +9434,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="16">
         <v>44078</v>
@@ -9473,10 +9470,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>264</v>
       </c>
       <c r="E8" s="16">
         <v>43957</v>
@@ -9503,7 +9500,7 @@
         <v>9975000</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -9514,10 +9511,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="16">
         <v>43959</v>
@@ -9553,10 +9550,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="16">
         <v>43962</v>
@@ -9595,7 +9592,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="16">
         <v>43998</v>
@@ -9634,7 +9631,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="16">
         <v>44022</v>
@@ -9670,10 +9667,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="16">
         <v>43964</v>
@@ -9709,10 +9706,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="16">
         <v>44042</v>
@@ -9748,10 +9745,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="16">
         <v>44043</v>
@@ -9787,10 +9784,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="16">
         <v>43901</v>
@@ -9826,10 +9823,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="16">
         <v>43902</v>
@@ -9886,7 +9883,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>18</v>
@@ -9939,6 +9936,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <uuca xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
+    <VERIFICADAVSCONTABILIDAD xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7">Verificada</VERIFICADAVSCONTABILIDAD>
+    <verificada xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
+    <SharedWithUsers xmlns="e351c5d8-61e1-41b6-84d8-e536a78b6c0c">
+      <UserInfo>
+        <DisplayName>Sheylla Jinette</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Andres Bueno Salazar</DisplayName>
+        <AccountId>20</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tesoreria Centronet</DisplayName>
+        <AccountId>37</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lady Tamayo</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alejandro Jimenez Rodriguez</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0A9EB854EEA5F40B987FCB721535166" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0a2f17941310ab99bd76ff2788221c8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e351c5d8-61e1-41b6-84d8-e536a78b6c0c" xmlns:ns3="6fc73c7f-b275-407f-b566-8650e0038fa7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a092763a2126285159078240ff12f4e" ns2:_="" ns3:_="">
     <xsd:import namespace="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
@@ -10157,53 +10200,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90182CCF-3801-4877-87A2-5B157A562960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fc73c7f-b275-407f-b566-8650e0038fa7"/>
+    <ds:schemaRef ds:uri="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <uuca xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
-    <VERIFICADAVSCONTABILIDAD xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7">Verificada</VERIFICADAVSCONTABILIDAD>
-    <verificada xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
-    <SharedWithUsers xmlns="e351c5d8-61e1-41b6-84d8-e536a78b6c0c">
-      <UserInfo>
-        <DisplayName>Sheylla Jinette</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Andres Bueno Salazar</DisplayName>
-        <AccountId>20</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tesoreria Centronet</DisplayName>
-        <AccountId>37</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lady Tamayo</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alejandro Jimenez Rodriguez</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846F462C-5710-4CBF-99A1-C0D3749D205F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AAA06B-57BD-4169-B95F-036023BB1644}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10220,23 +10236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846F462C-5710-4CBF-99A1-C0D3749D205F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90182CCF-3801-4877-87A2-5B157A562960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6fc73c7f-b275-407f-b566-8650e0038fa7"/>
-    <ds:schemaRef ds:uri="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/reporte de cuentas por pagar - .xlsx
+++ b/reporte de cuentas por pagar - .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\pago-proveedores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Forero\Desktop\Pago-proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44769671-51E1-4916-AAFE-DF4775711CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A76F52-B34E-4D6D-936F-CC7653F9A640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExportarAExcel!$A$1:$P$189</definedName>
     <definedName name="ExportarAExcel">ExportarAExcel!$A$1:$L$186</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="280">
   <si>
     <t>Nombres</t>
   </si>
@@ -864,6 +874,9 @@
   </si>
   <si>
     <t>Banco</t>
+  </si>
+  <si>
+    <t>BIBO SOLUTIONS SAS</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1430,8 @@
   <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O189" sqref="O189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -2009,7 +2022,7 @@
     </row>
     <row r="16" spans="1:16" s="6" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
@@ -2642,7 +2655,7 @@
         <v>193970</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P31" s="21"/>
     </row>
@@ -9936,52 +9949,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <uuca xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
-    <VERIFICADAVSCONTABILIDAD xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7">Verificada</VERIFICADAVSCONTABILIDAD>
-    <verificada xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
-    <SharedWithUsers xmlns="e351c5d8-61e1-41b6-84d8-e536a78b6c0c">
-      <UserInfo>
-        <DisplayName>Sheylla Jinette</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Andres Bueno Salazar</DisplayName>
-        <AccountId>20</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tesoreria Centronet</DisplayName>
-        <AccountId>37</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lady Tamayo</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alejandro Jimenez Rodriguez</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0A9EB854EEA5F40B987FCB721535166" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0a2f17941310ab99bd76ff2788221c8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e351c5d8-61e1-41b6-84d8-e536a78b6c0c" xmlns:ns3="6fc73c7f-b275-407f-b566-8650e0038fa7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a092763a2126285159078240ff12f4e" ns2:_="" ns3:_="">
     <xsd:import namespace="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
@@ -10200,26 +10167,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90182CCF-3801-4877-87A2-5B157A562960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6fc73c7f-b275-407f-b566-8650e0038fa7"/>
-    <ds:schemaRef ds:uri="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846F462C-5710-4CBF-99A1-C0D3749D205F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <uuca xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
+    <VERIFICADAVSCONTABILIDAD xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7">Verificada</VERIFICADAVSCONTABILIDAD>
+    <verificada xmlns="6fc73c7f-b275-407f-b566-8650e0038fa7" xsi:nil="true"/>
+    <SharedWithUsers xmlns="e351c5d8-61e1-41b6-84d8-e536a78b6c0c">
+      <UserInfo>
+        <DisplayName>Sheylla Jinette</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Andres Bueno Salazar</DisplayName>
+        <AccountId>20</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tesoreria Centronet</DisplayName>
+        <AccountId>37</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lady Tamayo</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alejandro Jimenez Rodriguez</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29AAA06B-57BD-4169-B95F-036023BB1644}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10236,4 +10230,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846F462C-5710-4CBF-99A1-C0D3749D205F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90182CCF-3801-4877-87A2-5B157A562960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fc73c7f-b275-407f-b566-8650e0038fa7"/>
+    <ds:schemaRef ds:uri="e351c5d8-61e1-41b6-84d8-e536a78b6c0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>